--- a/results/scale/v_grouped_wide_with_scale.xlsx
+++ b/results/scale/v_grouped_wide_with_scale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,100 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>subj_idx</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>subj_idx</t>
+          <t>emotion_negative_negative</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_negative</t>
+          <t>emotion_negative_positive</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_positive</t>
+          <t>emotion_positive_negative</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_negative</t>
+          <t>emotion_positive_positive</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_positive</t>
+          <t>shape_negative_negative</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_negative</t>
+          <t>shape_negative_positive</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_positive</t>
+          <t>shape_positive_negative</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_negative</t>
+          <t>shape_positive_positive</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_positive</t>
+          <t>emotion_positivePrimeIndex</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrimeIndex</t>
+          <t>emotion_negativePrimeIndex</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negativePrimeIndex</t>
+          <t>shape_positivePrimeIndex</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrimeIndex</t>
+          <t>shape_negativePrimeIndex</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>shape_negativePrimeIndex</t>
+          <t>shape_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrime-negativePrime</t>
+          <t>emotion_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrime-negativePrime</t>
+          <t>test</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>name</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HAMD</t>
         </is>
@@ -543,3544 +538,3294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>56189087</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>-1.922822305354057</v>
+      </c>
       <c r="C2" t="n">
-        <v>-1.922822305354057</v>
+        <v>5.193125461298918</v>
       </c>
       <c r="D2" t="n">
-        <v>5.193125461298918</v>
+        <v>-0.842621389797543</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.842621389797543</v>
+        <v>3.1972548947636</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1972548947636</v>
+        <v>-3.671745352149928</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.671745352149928</v>
+        <v>3.304758587113413</v>
       </c>
       <c r="H2" t="n">
-        <v>3.304758587113413</v>
+        <v>-3.69746456815737</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.69746456815737</v>
+        <v>1.587701019657346</v>
       </c>
       <c r="J2" t="n">
-        <v>1.587701019657346</v>
+        <v>1.080200915556514</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.039876284561143</v>
+        <v>1.995870566535317</v>
       </c>
       <c r="L2" t="n">
-        <v>-7.115947766652974</v>
+        <v>-0.02571921600744176</v>
       </c>
       <c r="M2" t="n">
-        <v>-5.285165587814715</v>
+        <v>1.717057567456067</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.976503939263341</v>
+        <v>-1.742776783463509</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.742776783463509</v>
+        <v>-0.9156696509788036</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.9156696509788036</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4.767409833540457</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>-2.658446434442313</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>钟文霞</t>
         </is>
       </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>56277415</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>-1.907562205644089</v>
+      </c>
       <c r="C3" t="n">
-        <v>-1.907562205644089</v>
+        <v>3.603127430941348</v>
       </c>
       <c r="D3" t="n">
-        <v>3.603127430941348</v>
+        <v>-0.8158282482491639</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8158282482491639</v>
+        <v>3.915801333006696</v>
       </c>
       <c r="F3" t="n">
-        <v>3.915801333006696</v>
+        <v>-2.137652105195936</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.137652105195936</v>
+        <v>1.85103821899371</v>
       </c>
       <c r="H3" t="n">
-        <v>1.85103821899371</v>
+        <v>-0.9993467851910448</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9993467851910448</v>
+        <v>1.549481796165599</v>
       </c>
       <c r="J3" t="n">
-        <v>1.549481796165599</v>
+        <v>1.091733957394925</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.73162958125586</v>
+        <v>-0.312673902065348</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.510689636585438</v>
+        <v>1.138305320004891</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.548828581356644</v>
+        <v>0.3015564228281116</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.988690324189647</v>
+        <v>0.8367488971767797</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8367488971767797</v>
+        <v>1.404407859460273</v>
       </c>
       <c r="P3" t="n">
-        <v>1.404407859460273</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.218921798162581</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>2.241156756637053</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>孔张骋</t>
         </is>
       </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>56279808</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>-2.188488486733563</v>
+      </c>
       <c r="C4" t="n">
-        <v>-2.188488486733563</v>
+        <v>2.891003351332746</v>
       </c>
       <c r="D4" t="n">
-        <v>2.891003351332746</v>
+        <v>-6.908276071737857</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.908276071737857</v>
+        <v>4.929913808108465</v>
       </c>
       <c r="F4" t="n">
-        <v>4.929913808108465</v>
+        <v>-2.76646095528746</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.76646095528746</v>
+        <v>4.645311485432878</v>
       </c>
       <c r="H4" t="n">
-        <v>4.645311485432878</v>
+        <v>-4.428196866025932</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.428196866025932</v>
+        <v>2.308076904081548</v>
       </c>
       <c r="J4" t="n">
-        <v>2.308076904081548</v>
+        <v>-4.719787585004294</v>
       </c>
       <c r="K4" t="n">
-        <v>-11.83818987984632</v>
+        <v>-2.038910456775719</v>
       </c>
       <c r="L4" t="n">
-        <v>-5.079491838066309</v>
+        <v>-1.661735910738471</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.73627377010748</v>
+        <v>2.33723458135133</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.411772440720338</v>
+        <v>-3.998970492089802</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.998970492089802</v>
+        <v>-2.680877128228575</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.680877128228575</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-6.083199371167153</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>-6.679847620318377</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>戴俞锋</t>
         </is>
+      </c>
+      <c r="R4" t="n">
+        <v>16</v>
       </c>
       <c r="S4" t="n">
         <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>56343776</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>-3.819766468951995</v>
+      </c>
       <c r="C5" t="n">
-        <v>-3.819766468951995</v>
+        <v>2.030628739214449</v>
       </c>
       <c r="D5" t="n">
-        <v>2.030628739214449</v>
+        <v>-0.4943062262694039</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4943062262694039</v>
+        <v>3.232722605666518</v>
       </c>
       <c r="F5" t="n">
-        <v>3.232722605666518</v>
+        <v>-1.260235829008014</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.260235829008014</v>
+        <v>2.741701146117629</v>
       </c>
       <c r="H5" t="n">
-        <v>2.741701146117629</v>
+        <v>-3.823028313187745</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.823028313187745</v>
+        <v>0.6594516148306315</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6594516148306315</v>
+        <v>3.325460242682591</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.727028831935922</v>
+        <v>-1.202093866452069</v>
       </c>
       <c r="L5" t="n">
-        <v>-5.850395208166445</v>
+        <v>-2.562792484179731</v>
       </c>
       <c r="M5" t="n">
-        <v>-4.482479928018376</v>
+        <v>2.082249531286997</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.001936975125643</v>
+        <v>-4.645042015466728</v>
       </c>
       <c r="O5" t="n">
-        <v>-4.645042015466728</v>
+        <v>4.52755410913466</v>
       </c>
       <c r="P5" t="n">
-        <v>4.52755410913466</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.642823423337789</v>
-      </c>
-      <c r="R5" t="inlineStr">
+        <v>-0.1174879063320686</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>蒲柳衣</t>
         </is>
       </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>56346638</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>-2.723763225251903</v>
+      </c>
       <c r="C6" t="n">
-        <v>-2.723763225251903</v>
+        <v>3.176360281099081</v>
       </c>
       <c r="D6" t="n">
-        <v>3.176360281099081</v>
+        <v>-2.012792615905076</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.012792615905076</v>
+        <v>5.36098502691547</v>
       </c>
       <c r="F6" t="n">
-        <v>5.36098502691547</v>
+        <v>-3.46978123468844</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.46978123468844</v>
+        <v>7.534052231345405</v>
       </c>
       <c r="H6" t="n">
-        <v>7.534052231345405</v>
+        <v>-3.697051057238102</v>
       </c>
       <c r="I6" t="n">
-        <v>-3.697051057238102</v>
+        <v>1.64808242507442</v>
       </c>
       <c r="J6" t="n">
-        <v>1.64808242507442</v>
+        <v>0.7109706093468273</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.373777642820546</v>
+        <v>-2.184624745816389</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.900123506350983</v>
+        <v>-0.2272698225496623</v>
       </c>
       <c r="M6" t="n">
-        <v>-5.345133482312522</v>
+        <v>5.885969806270985</v>
       </c>
       <c r="N6" t="n">
-        <v>-11.00383346603384</v>
+        <v>-6.113239628820648</v>
       </c>
       <c r="O6" t="n">
-        <v>-6.113239628820648</v>
+        <v>2.895595355163217</v>
       </c>
       <c r="P6" t="n">
-        <v>2.895595355163217</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4.18504584725176</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>-3.217644273657431</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>许乔峰</t>
         </is>
       </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>56352066</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>-1.843257583819422</v>
+      </c>
       <c r="C7" t="n">
-        <v>-1.843257583819422</v>
+        <v>4.282078584374173</v>
       </c>
       <c r="D7" t="n">
-        <v>4.282078584374173</v>
+        <v>-4.929982676569479</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.929982676569479</v>
+        <v>1.936412494198962</v>
       </c>
       <c r="F7" t="n">
-        <v>1.936412494198962</v>
+        <v>-2.276537467446068</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.276537467446068</v>
+        <v>1.947057079521321</v>
       </c>
       <c r="H7" t="n">
-        <v>1.947057079521321</v>
+        <v>-4.834345188769011</v>
       </c>
       <c r="I7" t="n">
-        <v>-4.834345188769011</v>
+        <v>7.157422350351779</v>
       </c>
       <c r="J7" t="n">
-        <v>7.157422350351779</v>
+        <v>-3.086725092750058</v>
       </c>
       <c r="K7" t="n">
-        <v>-6.866395170768442</v>
+        <v>2.345666090175211</v>
       </c>
       <c r="L7" t="n">
-        <v>-6.125336168193595</v>
+        <v>-2.557807721322943</v>
       </c>
       <c r="M7" t="n">
-        <v>-11.99176753912079</v>
+        <v>-5.210365270830458</v>
       </c>
       <c r="N7" t="n">
-        <v>-4.223594546967389</v>
+        <v>2.652557549507515</v>
       </c>
       <c r="O7" t="n">
-        <v>2.652557549507515</v>
+        <v>-5.432391182925269</v>
       </c>
       <c r="P7" t="n">
-        <v>-5.432391182925269</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-8.509231994728248</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>-2.779833633417754</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>周鼎</t>
         </is>
       </c>
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>56354957</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>-1.796945336713542</v>
+      </c>
       <c r="C8" t="n">
-        <v>-1.796945336713542</v>
+        <v>2.499716993553147</v>
       </c>
       <c r="D8" t="n">
-        <v>2.499716993553147</v>
+        <v>-2.403476191038622</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.403476191038622</v>
+        <v>1.191054773121119</v>
       </c>
       <c r="F8" t="n">
-        <v>1.191054773121119</v>
+        <v>-4.046758771872878</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.046758771872878</v>
+        <v>2.473248577568648</v>
       </c>
       <c r="H8" t="n">
-        <v>2.473248577568648</v>
+        <v>-2.206832859035439</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.206832859035439</v>
+        <v>3.23588883142202</v>
       </c>
       <c r="J8" t="n">
-        <v>3.23588883142202</v>
+        <v>-0.6065308543250796</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.59453096415974</v>
+        <v>1.308662220432028</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.296662330266689</v>
+        <v>1.839925912837439</v>
       </c>
       <c r="M8" t="n">
-        <v>-5.442721690457459</v>
+        <v>-0.7626402538533719</v>
       </c>
       <c r="N8" t="n">
-        <v>-6.520007349441526</v>
+        <v>2.602566166690811</v>
       </c>
       <c r="O8" t="n">
-        <v>2.602566166690811</v>
+        <v>-1.915193074757108</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.915193074757108</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.779417025091016</v>
-      </c>
-      <c r="R8" t="inlineStr">
+        <v>0.6873730919337033</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>肖方睿</t>
         </is>
       </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U8" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>56358294</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>-2.444464889353879</v>
+      </c>
       <c r="C9" t="n">
-        <v>-2.444464889353879</v>
+        <v>0.8827988695517435</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8827988695517435</v>
+        <v>-2.74333116995456</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.74333116995456</v>
+        <v>2.842831804218441</v>
       </c>
       <c r="F9" t="n">
-        <v>2.842831804218441</v>
+        <v>-2.989594438535291</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.989594438535291</v>
+        <v>1.743218980597954</v>
       </c>
       <c r="H9" t="n">
-        <v>1.743218980597954</v>
+        <v>-1.111211468893826</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.111211468893826</v>
+        <v>1.917731996091745</v>
       </c>
       <c r="J9" t="n">
-        <v>1.917731996091745</v>
+        <v>-0.2988662806006812</v>
       </c>
       <c r="K9" t="n">
-        <v>-5.586162974173002</v>
+        <v>-1.960032934666698</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.327263758905622</v>
+        <v>1.878382969641465</v>
       </c>
       <c r="M9" t="n">
-        <v>-3.028943464985571</v>
+        <v>-0.1745130154937911</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.732813419133246</v>
+        <v>2.052895985135256</v>
       </c>
       <c r="O9" t="n">
-        <v>2.052895985135256</v>
+        <v>1.661166654066016</v>
       </c>
       <c r="P9" t="n">
-        <v>1.661166654066016</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.5550292611197047</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>3.714062639201273</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>钟福琳</t>
         </is>
       </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>56362338</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>-3.003964151639545</v>
+      </c>
       <c r="C10" t="n">
-        <v>-3.003964151639545</v>
+        <v>6.493306449447171</v>
       </c>
       <c r="D10" t="n">
-        <v>6.493306449447171</v>
+        <v>-4.025777343753216</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.025777343753216</v>
+        <v>3.628873330398518</v>
       </c>
       <c r="F10" t="n">
-        <v>3.628873330398518</v>
+        <v>-6.78062548726344</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.78062548726344</v>
+        <v>5.070255886178162</v>
       </c>
       <c r="H10" t="n">
-        <v>5.070255886178162</v>
+        <v>-5.323285106011396</v>
       </c>
       <c r="I10" t="n">
-        <v>-5.323285106011396</v>
+        <v>5.206190287472223</v>
       </c>
       <c r="J10" t="n">
-        <v>5.206190287472223</v>
+        <v>-1.021813192113671</v>
       </c>
       <c r="K10" t="n">
-        <v>-7.654650674151734</v>
+        <v>2.864433119048653</v>
       </c>
       <c r="L10" t="n">
-        <v>-9.497270601086715</v>
+        <v>1.457340381252044</v>
       </c>
       <c r="M10" t="n">
-        <v>-10.52947539348362</v>
+        <v>-0.1359344012940609</v>
       </c>
       <c r="N10" t="n">
-        <v>-11.8508813734416</v>
+        <v>1.593274782546104</v>
       </c>
       <c r="O10" t="n">
-        <v>1.593274782546104</v>
+        <v>-3.886246311162323</v>
       </c>
       <c r="P10" t="n">
-        <v>-3.886246311162323</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.164025906892965</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>-2.292971528616219</v>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>陆鸿运</t>
         </is>
       </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
       <c r="S10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
-      </c>
-      <c r="U10" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>56365025</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>-3.681104923693702</v>
+      </c>
       <c r="C11" t="n">
-        <v>-3.681104923693702</v>
+        <v>3.960107846086949</v>
       </c>
       <c r="D11" t="n">
-        <v>3.960107846086949</v>
+        <v>-5.840802846753374</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.840802846753374</v>
+        <v>3.144220142944625</v>
       </c>
       <c r="F11" t="n">
-        <v>3.144220142944625</v>
+        <v>-2.329254004251668</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.329254004251668</v>
+        <v>3.736008048704292</v>
       </c>
       <c r="H11" t="n">
-        <v>3.736008048704292</v>
+        <v>-1.364092820291935</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.364092820291935</v>
+        <v>4.006129975937725</v>
       </c>
       <c r="J11" t="n">
-        <v>4.006129975937725</v>
+        <v>-2.159697923059672</v>
       </c>
       <c r="K11" t="n">
-        <v>-8.985022989697999</v>
+        <v>0.815887703142324</v>
       </c>
       <c r="L11" t="n">
-        <v>-7.641212769780651</v>
+        <v>0.9651611839597329</v>
       </c>
       <c r="M11" t="n">
-        <v>-5.37022279622966</v>
+        <v>-0.2701219272334328</v>
       </c>
       <c r="N11" t="n">
-        <v>-6.06526205295596</v>
+        <v>1.235283111193166</v>
       </c>
       <c r="O11" t="n">
-        <v>1.235283111193166</v>
+        <v>-2.975585626201996</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.975585626201996</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>-0.6487709631910477</v>
-      </c>
-      <c r="R11" t="inlineStr">
+        <v>-1.74030251500883</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>季志强</t>
         </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>56367536</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>-3.791634712661587</v>
+      </c>
       <c r="C12" t="n">
-        <v>-3.791634712661587</v>
+        <v>3.527570262188124</v>
       </c>
       <c r="D12" t="n">
-        <v>3.527570262188124</v>
+        <v>-1.285269592023074</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.285269592023074</v>
+        <v>3.251760809092752</v>
       </c>
       <c r="F12" t="n">
-        <v>3.251760809092752</v>
+        <v>-1.234980515448701</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.234980515448701</v>
+        <v>3.364961240434861</v>
       </c>
       <c r="H12" t="n">
-        <v>3.364961240434861</v>
+        <v>-2.282402557202532</v>
       </c>
       <c r="I12" t="n">
-        <v>-2.282402557202532</v>
+        <v>2.592277316606593</v>
       </c>
       <c r="J12" t="n">
-        <v>2.592277316606593</v>
+        <v>2.506365120638514</v>
       </c>
       <c r="K12" t="n">
-        <v>-4.537030401115826</v>
+        <v>0.2758094530953721</v>
       </c>
       <c r="L12" t="n">
-        <v>-7.319204974849711</v>
+        <v>-1.047422041753831</v>
       </c>
       <c r="M12" t="n">
-        <v>-4.874679873809125</v>
+        <v>0.7726839238282683</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.599941755883561</v>
+        <v>-1.820105965582099</v>
       </c>
       <c r="O12" t="n">
-        <v>-1.820105965582099</v>
+        <v>2.230555667543141</v>
       </c>
       <c r="P12" t="n">
-        <v>2.230555667543141</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.507436455808321</v>
-      </c>
-      <c r="R12" t="inlineStr">
+        <v>0.410449701961042</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>徐昕睿</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
-      </c>
-      <c r="U12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>56696990</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>-3.276111148207868</v>
+      </c>
       <c r="C13" t="n">
-        <v>-3.276111148207868</v>
+        <v>2.119715447710548</v>
       </c>
       <c r="D13" t="n">
-        <v>2.119715447710548</v>
+        <v>-2.64976294118539</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.64976294118539</v>
+        <v>4.586207254663137</v>
       </c>
       <c r="F13" t="n">
-        <v>4.586207254663137</v>
+        <v>-0.9326553946703212</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.9326553946703212</v>
+        <v>2.99718751942684</v>
       </c>
       <c r="H13" t="n">
-        <v>2.99718751942684</v>
+        <v>-3.662957420473783</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.662957420473783</v>
+        <v>2.269829724631955</v>
       </c>
       <c r="J13" t="n">
-        <v>2.269829724631955</v>
+        <v>0.6263482070224784</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.235970195848527</v>
+        <v>-2.466491806952589</v>
       </c>
       <c r="L13" t="n">
-        <v>-5.395826595918416</v>
+        <v>-2.730302025803462</v>
       </c>
       <c r="M13" t="n">
-        <v>-5.932787145105737</v>
+        <v>0.7273577947948859</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.929842914097162</v>
+        <v>-3.457659820598348</v>
       </c>
       <c r="O13" t="n">
-        <v>-3.457659820598348</v>
+        <v>3.092840013975068</v>
       </c>
       <c r="P13" t="n">
-        <v>3.092840013975068</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-3.843087830938686</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>-0.36481980662328</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>张屿嘉</t>
         </is>
       </c>
+      <c r="R13" t="n">
+        <v>20</v>
+      </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
-      </c>
-      <c r="U13" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>56702182</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>-7.687007260137874</v>
+      </c>
       <c r="C14" t="n">
-        <v>-7.687007260137874</v>
+        <v>2.484609853948064</v>
       </c>
       <c r="D14" t="n">
-        <v>2.484609853948064</v>
+        <v>-4.331458698097557</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.331458698097557</v>
+        <v>5.480020093044609</v>
       </c>
       <c r="F14" t="n">
-        <v>5.480020093044609</v>
+        <v>-7.061405732398671</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.061405732398671</v>
+        <v>3.884426059783057</v>
       </c>
       <c r="H14" t="n">
-        <v>3.884426059783057</v>
+        <v>-6.409926796718058</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.409926796718058</v>
+        <v>5.611818807507867</v>
       </c>
       <c r="J14" t="n">
-        <v>5.611818807507867</v>
+        <v>3.355548562040317</v>
       </c>
       <c r="K14" t="n">
-        <v>-9.811478791142166</v>
+        <v>-2.995410239096545</v>
       </c>
       <c r="L14" t="n">
-        <v>-10.17161711408594</v>
+        <v>0.651478935680613</v>
       </c>
       <c r="M14" t="n">
-        <v>-12.02174560422593</v>
+        <v>-1.727392747724811</v>
       </c>
       <c r="N14" t="n">
-        <v>-10.94583179218173</v>
+        <v>2.378871683405424</v>
       </c>
       <c r="O14" t="n">
-        <v>2.378871683405424</v>
+        <v>6.350958801136862</v>
       </c>
       <c r="P14" t="n">
-        <v>6.350958801136862</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>-0.7157754891004249</v>
-      </c>
-      <c r="R14" t="inlineStr">
+        <v>8.729830484542285</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>于胡倩</t>
         </is>
       </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>56708148</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>-1.110156851761216</v>
+      </c>
       <c r="C15" t="n">
-        <v>-1.110156851761216</v>
+        <v>2.512679309061809</v>
       </c>
       <c r="D15" t="n">
-        <v>2.512679309061809</v>
+        <v>-1.329537031877065</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.329537031877065</v>
+        <v>2.535584510526626</v>
       </c>
       <c r="F15" t="n">
-        <v>2.535584510526626</v>
+        <v>-0.9538571518297358</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.9538571518297358</v>
+        <v>2.459928901796603</v>
       </c>
       <c r="H15" t="n">
-        <v>2.459928901796603</v>
+        <v>-2.47952810679974</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.47952810679974</v>
+        <v>6.645268687776047</v>
       </c>
       <c r="J15" t="n">
-        <v>6.645268687776047</v>
+        <v>-0.219380180115849</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.865121542403691</v>
+        <v>-0.02290520146481745</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.622836160823025</v>
+        <v>-1.525670954970004</v>
       </c>
       <c r="M15" t="n">
-        <v>-9.124796794575786</v>
+        <v>-4.185339785979444</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.413786053626339</v>
+        <v>2.659668831009441</v>
       </c>
       <c r="O15" t="n">
-        <v>2.659668831009441</v>
+        <v>-0.1964749786510316</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1964749786510316</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-5.953296122530114</v>
-      </c>
-      <c r="R15" t="inlineStr">
+        <v>2.463193852358408</v>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>程新宙</t>
         </is>
       </c>
+      <c r="R15" t="n">
+        <v>14</v>
+      </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
-      </c>
-      <c r="U15" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>56710691</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>-4.444029453986567</v>
+      </c>
       <c r="C16" t="n">
-        <v>-4.444029453986567</v>
+        <v>3.239343835470722</v>
       </c>
       <c r="D16" t="n">
-        <v>3.239343835470722</v>
+        <v>-2.039659457869631</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.039659457869631</v>
+        <v>7.176479506076079</v>
       </c>
       <c r="F16" t="n">
-        <v>7.176479506076079</v>
+        <v>-6.168764631198077</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.168764631198077</v>
+        <v>2.71389932717528</v>
       </c>
       <c r="H16" t="n">
-        <v>2.71389932717528</v>
+        <v>-1.313791732182096</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.313791732182096</v>
+        <v>5.144653784691329</v>
       </c>
       <c r="J16" t="n">
-        <v>5.144653784691329</v>
+        <v>2.404369996116936</v>
       </c>
       <c r="K16" t="n">
-        <v>-9.21613896394571</v>
+        <v>-3.937135670605357</v>
       </c>
       <c r="L16" t="n">
-        <v>-7.68337328945729</v>
+        <v>4.854972899015982</v>
       </c>
       <c r="M16" t="n">
-        <v>-6.458445516873424</v>
+        <v>-2.430754457516049</v>
       </c>
       <c r="N16" t="n">
-        <v>-8.882663958373357</v>
+        <v>7.28572735653203</v>
       </c>
       <c r="O16" t="n">
-        <v>7.28572735653203</v>
+        <v>6.341505666722293</v>
       </c>
       <c r="P16" t="n">
-        <v>6.341505666722293</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.8914527670115122</v>
-      </c>
-      <c r="R16" t="inlineStr">
+        <v>13.62723302325432</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>王晨祎</t>
         </is>
       </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
       <c r="S16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
-      </c>
-      <c r="U16" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>56783666</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>-2.233925189032189</v>
+      </c>
       <c r="C17" t="n">
-        <v>-2.233925189032189</v>
+        <v>3.774113130553193</v>
       </c>
       <c r="D17" t="n">
-        <v>3.774113130553193</v>
+        <v>-6.241366513897551</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.241366513897551</v>
+        <v>6.307741203072917</v>
       </c>
       <c r="F17" t="n">
-        <v>6.307741203072917</v>
+        <v>-5.277068199317402</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.277068199317402</v>
+        <v>6.53779664350904</v>
       </c>
       <c r="H17" t="n">
-        <v>6.53779664350904</v>
+        <v>-1.24992936046685</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.24992936046685</v>
+        <v>5.679715745435397</v>
       </c>
       <c r="J17" t="n">
-        <v>5.679715745435397</v>
+        <v>-4.007441324865363</v>
       </c>
       <c r="K17" t="n">
-        <v>-12.54910771697047</v>
+        <v>-2.533628072519723</v>
       </c>
       <c r="L17" t="n">
-        <v>-6.008038319585382</v>
+        <v>4.027138838850552</v>
       </c>
       <c r="M17" t="n">
-        <v>-6.929645105902247</v>
+        <v>0.8580808980736432</v>
       </c>
       <c r="N17" t="n">
-        <v>-11.81486484282644</v>
+        <v>3.169057940776909</v>
       </c>
       <c r="O17" t="n">
-        <v>3.169057940776909</v>
+        <v>-1.473813252345639</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.473813252345639</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-1.655849660460891</v>
-      </c>
-      <c r="R17" t="inlineStr">
+        <v>1.69524468843127</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>于金龙</t>
         </is>
       </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
-      </c>
-      <c r="U17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>56787409</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>-3.81259816607429</v>
+      </c>
       <c r="C18" t="n">
-        <v>-3.81259816607429</v>
+        <v>1.692783566699497</v>
       </c>
       <c r="D18" t="n">
-        <v>1.692783566699497</v>
+        <v>-5.870739808820639</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.870739808820639</v>
+        <v>0.6464094552022784</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6464094552022784</v>
+        <v>-2.620002831574775</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.620002831574775</v>
+        <v>1.43550997570239</v>
       </c>
       <c r="H18" t="n">
-        <v>1.43550997570239</v>
+        <v>-1.9948689841439</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.9948689841439</v>
+        <v>5.46627960820855</v>
       </c>
       <c r="J18" t="n">
-        <v>5.46627960820855</v>
+        <v>-2.058141642746349</v>
       </c>
       <c r="K18" t="n">
-        <v>-6.517149264022918</v>
+        <v>1.046374111497218</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.505381732773786</v>
+        <v>0.6251338474308747</v>
       </c>
       <c r="M18" t="n">
-        <v>-7.46114859235245</v>
+        <v>-4.030769632506161</v>
       </c>
       <c r="N18" t="n">
-        <v>-4.055512807277164</v>
+        <v>4.655903479937035</v>
       </c>
       <c r="O18" t="n">
-        <v>4.655903479937035</v>
+        <v>-3.104515754243567</v>
       </c>
       <c r="P18" t="n">
-        <v>-3.104515754243567</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-4.417403316324418</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>1.551387725693468</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>左家伟</t>
         </is>
       </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
-      </c>
-      <c r="U18" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>56789859</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>-5.787418576544276</v>
+      </c>
       <c r="C19" t="n">
-        <v>-5.787418576544276</v>
+        <v>4.768742109852453</v>
       </c>
       <c r="D19" t="n">
-        <v>4.768742109852453</v>
+        <v>-3.354153192403097</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.354153192403097</v>
+        <v>7.689096063986848</v>
       </c>
       <c r="F19" t="n">
-        <v>7.689096063986848</v>
+        <v>-3.299118319420605</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.299118319420605</v>
+        <v>6.154248112719825</v>
       </c>
       <c r="H19" t="n">
-        <v>6.154248112719825</v>
+        <v>-1.667649994235027</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.667649994235027</v>
+        <v>6.683100169059514</v>
       </c>
       <c r="J19" t="n">
-        <v>6.683100169059514</v>
+        <v>2.433265384141179</v>
       </c>
       <c r="K19" t="n">
-        <v>-11.04324925638995</v>
+        <v>-2.920353954134395</v>
       </c>
       <c r="L19" t="n">
-        <v>-10.55616068639673</v>
+        <v>1.631468325185578</v>
       </c>
       <c r="M19" t="n">
-        <v>-8.350750163294542</v>
+        <v>-0.5288520563396899</v>
       </c>
       <c r="N19" t="n">
-        <v>-9.453366432140429</v>
+        <v>2.160320381525268</v>
       </c>
       <c r="O19" t="n">
-        <v>2.160320381525268</v>
+        <v>5.353619338275574</v>
       </c>
       <c r="P19" t="n">
-        <v>5.353619338275574</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.6155276988526719</v>
-      </c>
-      <c r="R19" t="inlineStr">
+        <v>7.513939719800842</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>王皓璋</t>
         </is>
       </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>55758322</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>-3.298436805548593</v>
+      </c>
       <c r="C20" t="n">
-        <v>-3.298436805548593</v>
+        <v>2.003966624862945</v>
       </c>
       <c r="D20" t="n">
-        <v>2.003966624862945</v>
+        <v>-4.92729521980332</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.92729521980332</v>
+        <v>4.787851150945857</v>
       </c>
       <c r="F20" t="n">
-        <v>4.787851150945857</v>
+        <v>-6.566577977613382</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.566577977613382</v>
+        <v>5.237937285450159</v>
       </c>
       <c r="H20" t="n">
-        <v>5.237937285450159</v>
+        <v>-2.351824348256359</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.351824348256359</v>
+        <v>3.622796891536031</v>
       </c>
       <c r="J20" t="n">
-        <v>3.622796891536031</v>
+        <v>-1.628858414254727</v>
       </c>
       <c r="K20" t="n">
-        <v>-9.715146370749178</v>
+        <v>-2.783884526082911</v>
       </c>
       <c r="L20" t="n">
-        <v>-5.302403430411538</v>
+        <v>4.214753629357022</v>
       </c>
       <c r="M20" t="n">
-        <v>-5.974621239792391</v>
+        <v>1.615140393914128</v>
       </c>
       <c r="N20" t="n">
-        <v>-11.80451526306354</v>
+        <v>2.599613235442895</v>
       </c>
       <c r="O20" t="n">
-        <v>2.599613235442895</v>
+        <v>1.155026111828184</v>
       </c>
       <c r="P20" t="n">
-        <v>1.155026111828184</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.417151082933509</v>
-      </c>
-      <c r="R20" t="inlineStr">
+        <v>3.754639347271079</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>刘昊殷</t>
         </is>
       </c>
+      <c r="R20" t="n">
+        <v>9</v>
+      </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>55760307</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>-2.170199546371702</v>
+      </c>
       <c r="C21" t="n">
-        <v>-2.170199546371702</v>
+        <v>5.057420996074058</v>
       </c>
       <c r="D21" t="n">
-        <v>5.057420996074058</v>
+        <v>-2.604610308681897</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.604610308681897</v>
+        <v>2.434932079435385</v>
       </c>
       <c r="F21" t="n">
-        <v>2.434932079435385</v>
+        <v>-2.9689214276262</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.9689214276262</v>
+        <v>1.867165825382917</v>
       </c>
       <c r="H21" t="n">
-        <v>1.867165825382917</v>
+        <v>-2.180949476328406</v>
       </c>
       <c r="I21" t="n">
-        <v>-2.180949476328406</v>
+        <v>1.390391555920746</v>
       </c>
       <c r="J21" t="n">
-        <v>1.390391555920746</v>
+        <v>-0.4344107623101947</v>
       </c>
       <c r="K21" t="n">
-        <v>-5.039542388117281</v>
+        <v>2.622488916638674</v>
       </c>
       <c r="L21" t="n">
-        <v>-7.227620542445761</v>
+        <v>0.7879719512977941</v>
       </c>
       <c r="M21" t="n">
-        <v>-3.571341032249152</v>
+        <v>0.4767742694621708</v>
       </c>
       <c r="N21" t="n">
-        <v>-4.836087253009117</v>
+        <v>0.3111976818356232</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3111976818356232</v>
+        <v>-3.056899678948868</v>
       </c>
       <c r="P21" t="n">
-        <v>-3.056899678948868</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.452824375088444</v>
-      </c>
-      <c r="R21" t="inlineStr">
+        <v>-2.745701997113245</v>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>舒琪</t>
         </is>
       </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>55763117</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>-1.077044573410266</v>
+      </c>
       <c r="C22" t="n">
-        <v>-1.077044573410266</v>
+        <v>7.765141979707397</v>
       </c>
       <c r="D22" t="n">
-        <v>7.765141979707397</v>
+        <v>-2.474072088202127</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.474072088202127</v>
+        <v>4.759375090197955</v>
       </c>
       <c r="F22" t="n">
-        <v>4.759375090197955</v>
+        <v>-1.454318604326195</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.454318604326195</v>
+        <v>6.659282765200359</v>
       </c>
       <c r="H22" t="n">
-        <v>6.659282765200359</v>
+        <v>-2.840803066476781</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.840803066476781</v>
+        <v>4.269898486595957</v>
       </c>
       <c r="J22" t="n">
-        <v>4.269898486595957</v>
+        <v>-1.39702751479186</v>
       </c>
       <c r="K22" t="n">
-        <v>-7.233447178400082</v>
+        <v>3.005766889509442</v>
       </c>
       <c r="L22" t="n">
-        <v>-8.842186553117664</v>
+        <v>-1.386484462150586</v>
       </c>
       <c r="M22" t="n">
-        <v>-7.110701553072738</v>
+        <v>2.389384278604402</v>
       </c>
       <c r="N22" t="n">
-        <v>-8.113601369526554</v>
+        <v>-3.775868740754988</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.775868740754988</v>
+        <v>-4.402794404301302</v>
       </c>
       <c r="P22" t="n">
-        <v>-4.402794404301302</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.611639191171397</v>
-      </c>
-      <c r="R22" t="inlineStr">
+        <v>-8.178663145056291</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>蔡安新</t>
         </is>
       </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>55766121</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>-2.112922886600928</v>
+      </c>
       <c r="C23" t="n">
-        <v>-2.112922886600928</v>
+        <v>2.330326201609257</v>
       </c>
       <c r="D23" t="n">
-        <v>2.330326201609257</v>
+        <v>-2.240013502246891</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.240013502246891</v>
+        <v>2.581234833307065</v>
       </c>
       <c r="F23" t="n">
-        <v>2.581234833307065</v>
+        <v>-2.764422892108815</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.764422892108815</v>
+        <v>2.423812093749917</v>
       </c>
       <c r="H23" t="n">
-        <v>2.423812093749917</v>
+        <v>-1.189276909864312</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.189276909864312</v>
+        <v>2.384053931185341</v>
       </c>
       <c r="J23" t="n">
-        <v>2.384053931185341</v>
+        <v>-0.1270906156459635</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.821248335553957</v>
+        <v>-0.2509086316978082</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.443249088210185</v>
+        <v>1.575145982244502</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.573330841049653</v>
+        <v>0.03975816256457598</v>
       </c>
       <c r="N23" t="n">
-        <v>-5.188234985858731</v>
+        <v>1.535387819679926</v>
       </c>
       <c r="O23" t="n">
-        <v>1.535387819679926</v>
+        <v>0.1238180160518447</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1238180160518447</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.236904897465306</v>
-      </c>
-      <c r="R23" t="inlineStr">
+        <v>1.659205835731771</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>王子菲</t>
         </is>
       </c>
+      <c r="R23" t="n">
+        <v>10</v>
+      </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
-      </c>
-      <c r="U23" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>55768880</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>-2.635974604021454</v>
+      </c>
       <c r="C24" t="n">
-        <v>-2.635974604021454</v>
+        <v>5.131082155619556</v>
       </c>
       <c r="D24" t="n">
-        <v>5.131082155619556</v>
+        <v>-4.066182665853559</v>
       </c>
       <c r="E24" t="n">
-        <v>-4.066182665853559</v>
+        <v>1.953688978061445</v>
       </c>
       <c r="F24" t="n">
-        <v>1.953688978061445</v>
+        <v>-4.808115241698048</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.808115241698048</v>
+        <v>4.408827118198446</v>
       </c>
       <c r="H24" t="n">
-        <v>4.408827118198446</v>
+        <v>-2.576871944416129</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.576871944416129</v>
+        <v>1.783567561830116</v>
       </c>
       <c r="J24" t="n">
-        <v>1.783567561830116</v>
+        <v>-1.430208061832105</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.019871643915004</v>
+        <v>3.177393177558112</v>
       </c>
       <c r="L24" t="n">
-        <v>-7.767056759641011</v>
+        <v>2.23124329728192</v>
       </c>
       <c r="M24" t="n">
-        <v>-4.360439506246244</v>
+        <v>2.62525955636833</v>
       </c>
       <c r="N24" t="n">
-        <v>-9.216942359896494</v>
+        <v>-0.3940162590864105</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.3940162590864105</v>
+        <v>-4.607601239390217</v>
       </c>
       <c r="P24" t="n">
-        <v>-4.607601239390217</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>6.603687969376256</v>
-      </c>
-      <c r="R24" t="inlineStr">
+        <v>-5.001617498476627</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>刘洋</t>
         </is>
       </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>55774247</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>-7.590959243897065</v>
+      </c>
       <c r="C25" t="n">
-        <v>-7.590959243897065</v>
+        <v>7.204263400220537</v>
       </c>
       <c r="D25" t="n">
-        <v>7.204263400220537</v>
+        <v>-6.501715431895264</v>
       </c>
       <c r="E25" t="n">
-        <v>-6.501715431895264</v>
+        <v>3.691355187947899</v>
       </c>
       <c r="F25" t="n">
-        <v>3.691355187947899</v>
+        <v>-4.318245256890454</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.318245256890454</v>
+        <v>4.546870665141459</v>
       </c>
       <c r="H25" t="n">
-        <v>4.546870665141459</v>
+        <v>-6.185948368982807</v>
       </c>
       <c r="I25" t="n">
-        <v>-6.185948368982807</v>
+        <v>5.15401219171283</v>
       </c>
       <c r="J25" t="n">
-        <v>5.15401219171283</v>
+        <v>1.089243812001801</v>
       </c>
       <c r="K25" t="n">
-        <v>-10.19307061984316</v>
+        <v>3.512908212272638</v>
       </c>
       <c r="L25" t="n">
-        <v>-14.7952226441176</v>
+        <v>-1.867703112092353</v>
       </c>
       <c r="M25" t="n">
-        <v>-11.33996056069564</v>
+        <v>-0.6071415265713718</v>
       </c>
       <c r="N25" t="n">
-        <v>-8.865115922031912</v>
+        <v>-1.260561585520981</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.260561585520981</v>
+        <v>-2.423664400270837</v>
       </c>
       <c r="P25" t="n">
-        <v>-2.423664400270837</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.127307385610711</v>
-      </c>
-      <c r="R25" t="inlineStr">
+        <v>-3.684225985791818</v>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>管笑啸</t>
         </is>
       </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
-      </c>
-      <c r="U25" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>55776021</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>-3.872194948638963</v>
+      </c>
       <c r="C26" t="n">
-        <v>-3.872194948638963</v>
+        <v>3.644060185694801</v>
       </c>
       <c r="D26" t="n">
-        <v>3.644060185694801</v>
+        <v>-5.05882122507563</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.05882122507563</v>
+        <v>1.971858316194964</v>
       </c>
       <c r="F26" t="n">
-        <v>1.971858316194964</v>
+        <v>-5.439759091022111</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.439759091022111</v>
+        <v>2.705463219018825</v>
       </c>
       <c r="H26" t="n">
-        <v>2.705463219018825</v>
+        <v>-6.78881336962956</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.78881336962956</v>
+        <v>5.636596890982645</v>
       </c>
       <c r="J26" t="n">
-        <v>5.636596890982645</v>
+        <v>-1.186626276436667</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.030679541270594</v>
+        <v>1.672201869499837</v>
       </c>
       <c r="L26" t="n">
-        <v>-7.516255134333764</v>
+        <v>-1.349054278607449</v>
       </c>
       <c r="M26" t="n">
-        <v>-12.4254102606122</v>
+        <v>-2.93113367196382</v>
       </c>
       <c r="N26" t="n">
-        <v>-8.145222310040936</v>
+        <v>1.582079393356371</v>
       </c>
       <c r="O26" t="n">
-        <v>1.582079393356371</v>
+        <v>-2.858828145936504</v>
       </c>
       <c r="P26" t="n">
-        <v>-2.858828145936504</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-3.7946123575081</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>-1.276748752580133</v>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>贾凡</t>
         </is>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
       </c>
       <c r="S26" t="n">
         <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
-      </c>
-      <c r="U26" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>55777851</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>-5.767991113238296</v>
+      </c>
       <c r="C27" t="n">
-        <v>-5.767991113238296</v>
+        <v>7.535895313718931</v>
       </c>
       <c r="D27" t="n">
-        <v>7.535895313718931</v>
+        <v>-7.86140562880304</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.86140562880304</v>
+        <v>3.250702533147946</v>
       </c>
       <c r="F27" t="n">
-        <v>3.250702533147946</v>
+        <v>-3.207721777607103</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.207721777607103</v>
+        <v>3.225705444500313</v>
       </c>
       <c r="H27" t="n">
-        <v>3.225705444500313</v>
+        <v>-5.758179455588277</v>
       </c>
       <c r="I27" t="n">
-        <v>-5.758179455588277</v>
+        <v>3.183341866643853</v>
       </c>
       <c r="J27" t="n">
-        <v>3.183341866643853</v>
+        <v>-2.093414515564744</v>
       </c>
       <c r="K27" t="n">
-        <v>-11.11210816195099</v>
+        <v>4.285192780570985</v>
       </c>
       <c r="L27" t="n">
-        <v>-13.30388642695723</v>
+        <v>-2.550457677981174</v>
       </c>
       <c r="M27" t="n">
-        <v>-8.941521322232131</v>
+        <v>0.04236357785645994</v>
       </c>
       <c r="N27" t="n">
-        <v>-6.433427222107415</v>
+        <v>-2.592821255837634</v>
       </c>
       <c r="O27" t="n">
-        <v>-2.592821255837634</v>
+        <v>-6.378607296135729</v>
       </c>
       <c r="P27" t="n">
-        <v>-6.378607296135729</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-0.3163158351184734</v>
-      </c>
-      <c r="R27" t="inlineStr">
+        <v>-8.971428551973363</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>肖舜睿</t>
         </is>
       </c>
+      <c r="R27" t="n">
+        <v>7</v>
+      </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>55779767</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>-3.526840432685138</v>
+      </c>
       <c r="C28" t="n">
-        <v>-3.526840432685138</v>
+        <v>4.715748256513816</v>
       </c>
       <c r="D28" t="n">
-        <v>4.715748256513816</v>
+        <v>-1.54387088079593</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.54387088079593</v>
+        <v>2.156322518826301</v>
       </c>
       <c r="F28" t="n">
-        <v>2.156322518826301</v>
+        <v>-4.346646073572796</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.346646073572796</v>
+        <v>2.757927527830307</v>
       </c>
       <c r="H28" t="n">
-        <v>2.757927527830307</v>
+        <v>-2.304647371010193</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.304647371010193</v>
+        <v>3.69514229011564</v>
       </c>
       <c r="J28" t="n">
-        <v>3.69514229011564</v>
+        <v>1.982969551889208</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.700193399622231</v>
+        <v>2.559425737687515</v>
       </c>
       <c r="L28" t="n">
-        <v>-8.242588689198953</v>
+        <v>2.041998702562603</v>
       </c>
       <c r="M28" t="n">
-        <v>-5.999789661125833</v>
+        <v>-0.9372147622853326</v>
       </c>
       <c r="N28" t="n">
-        <v>-7.104573601403104</v>
+        <v>2.979213464847935</v>
       </c>
       <c r="O28" t="n">
-        <v>2.979213464847935</v>
+        <v>-0.5764561857983064</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.5764561857983064</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5.647179229853993</v>
-      </c>
-      <c r="R28" t="inlineStr">
+        <v>2.402757279049629</v>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>林雨仙</t>
         </is>
       </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>55781652</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>-5.739194216150365</v>
+      </c>
       <c r="C29" t="n">
-        <v>-5.739194216150365</v>
+        <v>3.436570345027556</v>
       </c>
       <c r="D29" t="n">
-        <v>3.436570345027556</v>
+        <v>-3.781296053278355</v>
       </c>
       <c r="E29" t="n">
-        <v>-3.781296053278355</v>
+        <v>3.919584565761772</v>
       </c>
       <c r="F29" t="n">
-        <v>3.919584565761772</v>
+        <v>-3.435086468407245</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.435086468407245</v>
+        <v>4.05104895820096</v>
       </c>
       <c r="H29" t="n">
-        <v>4.05104895820096</v>
+        <v>-6.597980292752388</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.597980292752388</v>
+        <v>2.884706046598035</v>
       </c>
       <c r="J29" t="n">
-        <v>2.884706046598035</v>
+        <v>1.957898162872009</v>
       </c>
       <c r="K29" t="n">
-        <v>-7.700880619040127</v>
+        <v>-0.4830142207342156</v>
       </c>
       <c r="L29" t="n">
-        <v>-9.175764561177921</v>
+        <v>-3.162893824345143</v>
       </c>
       <c r="M29" t="n">
-        <v>-9.482686339350423</v>
+        <v>1.166342911602925</v>
       </c>
       <c r="N29" t="n">
-        <v>-7.486135426608206</v>
+        <v>-4.329236735948069</v>
       </c>
       <c r="O29" t="n">
-        <v>-4.329236735948069</v>
+        <v>2.440912383606225</v>
       </c>
       <c r="P29" t="n">
-        <v>2.440912383606225</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>-0.5216669706044232</v>
-      </c>
-      <c r="R29" t="inlineStr">
+        <v>-1.888324352341844</v>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>符慧跃</t>
         </is>
       </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T29" t="n">
-        <v>12</v>
-      </c>
-      <c r="U29" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>55850187</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>-4.18335872582695</v>
+      </c>
       <c r="C30" t="n">
-        <v>-4.18335872582695</v>
+        <v>7.648031772108992</v>
       </c>
       <c r="D30" t="n">
-        <v>7.648031772108992</v>
+        <v>-2.393856601594726</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.393856601594726</v>
+        <v>6.673702681271</v>
       </c>
       <c r="F30" t="n">
-        <v>6.673702681271</v>
+        <v>-2.51470550813178</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.51470550813178</v>
+        <v>7.682268500300838</v>
       </c>
       <c r="H30" t="n">
-        <v>7.682268500300838</v>
+        <v>-5.233438328293547</v>
       </c>
       <c r="I30" t="n">
-        <v>-5.233438328293547</v>
+        <v>7.853467399884442</v>
       </c>
       <c r="J30" t="n">
-        <v>7.853467399884442</v>
+        <v>1.789502124232224</v>
       </c>
       <c r="K30" t="n">
-        <v>-9.067559282865727</v>
+        <v>0.9743290908379922</v>
       </c>
       <c r="L30" t="n">
-        <v>-11.83139049793594</v>
+        <v>-2.718732820161767</v>
       </c>
       <c r="M30" t="n">
-        <v>-13.08690572817799</v>
+        <v>-0.1711988995836045</v>
       </c>
       <c r="N30" t="n">
-        <v>-10.19697400843262</v>
+        <v>-2.547533920578163</v>
       </c>
       <c r="O30" t="n">
-        <v>-2.547533920578163</v>
+        <v>0.815173033394232</v>
       </c>
       <c r="P30" t="n">
-        <v>0.815173033394232</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>-0.126100504675156</v>
-      </c>
-      <c r="R30" t="inlineStr">
+        <v>-1.732360887183931</v>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>徐正圆</t>
         </is>
       </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>55852656</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>-5.737713342817687</v>
+      </c>
       <c r="C31" t="n">
-        <v>-5.737713342817687</v>
+        <v>7.334762491030678</v>
       </c>
       <c r="D31" t="n">
-        <v>7.334762491030678</v>
+        <v>-6.735230942106764</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.735230942106764</v>
+        <v>4.045053603512837</v>
       </c>
       <c r="F31" t="n">
-        <v>4.045053603512837</v>
+        <v>-7.239476557328389</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.239476557328389</v>
+        <v>5.110563071244291</v>
       </c>
       <c r="H31" t="n">
-        <v>5.110563071244291</v>
+        <v>-3.376440571755058</v>
       </c>
       <c r="I31" t="n">
-        <v>-3.376440571755058</v>
+        <v>2.845411499200809</v>
       </c>
       <c r="J31" t="n">
-        <v>2.845411499200809</v>
+        <v>-0.9975175992890764</v>
       </c>
       <c r="K31" t="n">
-        <v>-10.7802845456196</v>
+        <v>3.289708887517841</v>
       </c>
       <c r="L31" t="n">
-        <v>-13.07247583384837</v>
+        <v>3.863035985573331</v>
       </c>
       <c r="M31" t="n">
-        <v>-6.221852070955866</v>
+        <v>2.265151572043483</v>
       </c>
       <c r="N31" t="n">
-        <v>-12.35003962857268</v>
+        <v>1.597884413529848</v>
       </c>
       <c r="O31" t="n">
-        <v>1.597884413529848</v>
+        <v>-4.287226486806917</v>
       </c>
       <c r="P31" t="n">
-        <v>-4.287226486806917</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>8.42037884584558</v>
-      </c>
-      <c r="R31" t="inlineStr">
+        <v>-2.689342073277069</v>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>陈圣泽</t>
         </is>
       </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
-      </c>
-      <c r="U31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>55854618</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>-2.552003194202785</v>
+      </c>
       <c r="C32" t="n">
-        <v>-2.552003194202785</v>
+        <v>6.720421332277723</v>
       </c>
       <c r="D32" t="n">
-        <v>6.720421332277723</v>
+        <v>-6.630226133329185</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.630226133329185</v>
+        <v>5.936089694226649</v>
       </c>
       <c r="F32" t="n">
-        <v>5.936089694226649</v>
+        <v>-3.246759161316563</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.246759161316563</v>
+        <v>6.419803636957777</v>
       </c>
       <c r="H32" t="n">
-        <v>6.419803636957777</v>
+        <v>-5.118211614730275</v>
       </c>
       <c r="I32" t="n">
-        <v>-5.118211614730275</v>
+        <v>3.431910999804282</v>
       </c>
       <c r="J32" t="n">
-        <v>3.431910999804282</v>
+        <v>-4.0782229391264</v>
       </c>
       <c r="K32" t="n">
-        <v>-12.56631582755583</v>
+        <v>0.7843316380510741</v>
       </c>
       <c r="L32" t="n">
-        <v>-9.272424526480506</v>
+        <v>-1.871452453413712</v>
       </c>
       <c r="M32" t="n">
-        <v>-8.550122614534557</v>
+        <v>2.987892637153495</v>
       </c>
       <c r="N32" t="n">
-        <v>-9.66656279827434</v>
+        <v>-4.859345090567208</v>
       </c>
       <c r="O32" t="n">
-        <v>-4.859345090567208</v>
+        <v>-4.862554577177474</v>
       </c>
       <c r="P32" t="n">
-        <v>-4.862554577177474</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-2.177451117335544</v>
-      </c>
-      <c r="R32" t="inlineStr">
+        <v>-9.721899667744681</v>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>黄泽铭</t>
         </is>
       </c>
+      <c r="R32" t="n">
+        <v>12</v>
+      </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
-      </c>
-      <c r="U32" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>55860282</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>-5.507814683972098</v>
+      </c>
       <c r="C33" t="n">
-        <v>-5.507814683972098</v>
+        <v>1.30232056126226</v>
       </c>
       <c r="D33" t="n">
-        <v>1.30232056126226</v>
+        <v>-6.261822714520452</v>
       </c>
       <c r="E33" t="n">
-        <v>-6.261822714520452</v>
+        <v>4.535054305134123</v>
       </c>
       <c r="F33" t="n">
-        <v>4.535054305134123</v>
+        <v>-3.543001326796569</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.543001326796569</v>
+        <v>2.459374802509683</v>
       </c>
       <c r="H33" t="n">
-        <v>2.459374802509683</v>
+        <v>-4.264800958001506</v>
       </c>
       <c r="I33" t="n">
-        <v>-4.264800958001506</v>
+        <v>7.181793458784648</v>
       </c>
       <c r="J33" t="n">
-        <v>7.181793458784648</v>
+        <v>-0.7540080305483539</v>
       </c>
       <c r="K33" t="n">
-        <v>-10.79687701965458</v>
+        <v>-3.232733743871863</v>
       </c>
       <c r="L33" t="n">
-        <v>-6.810135245234358</v>
+        <v>-0.7217996312049371</v>
       </c>
       <c r="M33" t="n">
-        <v>-11.44659441678616</v>
+        <v>-4.722418656274965</v>
       </c>
       <c r="N33" t="n">
-        <v>-6.002376129306252</v>
+        <v>4.000619025070028</v>
       </c>
       <c r="O33" t="n">
-        <v>4.000619025070028</v>
+        <v>2.478725713323509</v>
       </c>
       <c r="P33" t="n">
-        <v>2.478725713323509</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>-9.430960061900119</v>
-      </c>
-      <c r="R33" t="inlineStr">
+        <v>6.479344738393538</v>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>石玥</t>
         </is>
       </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
       <c r="S33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
-      </c>
-      <c r="U33" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>55862633</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>-2.225327685352257</v>
+      </c>
       <c r="C34" t="n">
-        <v>-2.225327685352257</v>
+        <v>4.369247895159643</v>
       </c>
       <c r="D34" t="n">
-        <v>4.369247895159643</v>
+        <v>-2.856344038271619</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.856344038271619</v>
+        <v>2.68751355501983</v>
       </c>
       <c r="F34" t="n">
-        <v>2.68751355501983</v>
+        <v>-6.518962190466309</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.518962190466309</v>
+        <v>2.434345594391962</v>
       </c>
       <c r="H34" t="n">
-        <v>2.434345594391962</v>
+        <v>-4.142245538612309</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.142245538612309</v>
+        <v>6.292762422238247</v>
       </c>
       <c r="J34" t="n">
-        <v>6.292762422238247</v>
+        <v>-0.631016352919362</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.543857593291449</v>
+        <v>1.681734340139813</v>
       </c>
       <c r="L34" t="n">
-        <v>-6.5945755805119</v>
+        <v>2.376716651853999</v>
       </c>
       <c r="M34" t="n">
-        <v>-10.43500796085056</v>
+        <v>-3.858416827846284</v>
       </c>
       <c r="N34" t="n">
-        <v>-8.953307784858271</v>
+        <v>6.235133479700283</v>
       </c>
       <c r="O34" t="n">
-        <v>6.235133479700283</v>
+        <v>-2.312750693059175</v>
       </c>
       <c r="P34" t="n">
-        <v>-2.312750693059175</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>-0.4309821887718321</v>
-      </c>
-      <c r="R34" t="inlineStr">
+        <v>3.922382786641109</v>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>张楚晨</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>55864604</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>-2.250822116461399</v>
+      </c>
       <c r="C35" t="n">
-        <v>-2.250822116461399</v>
+        <v>2.888095518571394</v>
       </c>
       <c r="D35" t="n">
-        <v>2.888095518571394</v>
+        <v>-2.201633825363527</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.201633825363527</v>
+        <v>2.261640057582974</v>
       </c>
       <c r="F35" t="n">
-        <v>2.261640057582974</v>
+        <v>-3.762070026846477</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.762070026846477</v>
+        <v>6.031792047253512</v>
       </c>
       <c r="H35" t="n">
-        <v>6.031792047253512</v>
+        <v>-1.049287701682146</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.049287701682146</v>
+        <v>4.082140935219115</v>
       </c>
       <c r="J35" t="n">
-        <v>4.082140935219115</v>
+        <v>0.04918829109787248</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.463273882946501</v>
+        <v>0.6264554609884203</v>
       </c>
       <c r="L35" t="n">
-        <v>-5.138917635032794</v>
+        <v>2.712782325164331</v>
       </c>
       <c r="M35" t="n">
-        <v>-5.131428636901261</v>
+        <v>1.949651112034396</v>
       </c>
       <c r="N35" t="n">
-        <v>-9.793862074099989</v>
+        <v>0.763131213129935</v>
       </c>
       <c r="O35" t="n">
-        <v>0.763131213129935</v>
+        <v>-0.5772671698905478</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.5772671698905478</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5.338077189285021</v>
-      </c>
-      <c r="R35" t="inlineStr">
+        <v>0.1858640432393872</v>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>冯雨晨</t>
         </is>
       </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
-      </c>
-      <c r="U35" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>55866572</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>-4.697055204726925</v>
+      </c>
       <c r="C36" t="n">
-        <v>-4.697055204726925</v>
+        <v>4.964236874168428</v>
       </c>
       <c r="D36" t="n">
-        <v>4.964236874168428</v>
+        <v>-3.437352522611221</v>
       </c>
       <c r="E36" t="n">
-        <v>-3.437352522611221</v>
+        <v>3.220994828413643</v>
       </c>
       <c r="F36" t="n">
-        <v>3.220994828413643</v>
+        <v>-2.427137343945984</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.427137343945984</v>
+        <v>4.877904414069581</v>
       </c>
       <c r="H36" t="n">
-        <v>4.877904414069581</v>
+        <v>-3.491195067153418</v>
       </c>
       <c r="I36" t="n">
-        <v>-3.491195067153418</v>
+        <v>7.999122656254968</v>
       </c>
       <c r="J36" t="n">
-        <v>7.999122656254968</v>
+        <v>1.259702682115704</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.658347351024863</v>
+        <v>1.743242045754785</v>
       </c>
       <c r="L36" t="n">
-        <v>-9.661292078895354</v>
+        <v>-1.064057723207434</v>
       </c>
       <c r="M36" t="n">
-        <v>-11.49031772340839</v>
+        <v>-3.121218242185387</v>
       </c>
       <c r="N36" t="n">
-        <v>-7.305041758015565</v>
+        <v>2.057160518977953</v>
       </c>
       <c r="O36" t="n">
-        <v>2.057160518977953</v>
+        <v>-0.4835393636390815</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.4835393636390815</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>-1.182331237522331</v>
-      </c>
-      <c r="R36" t="inlineStr">
+        <v>1.573621155338871</v>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>魏子航</t>
         </is>
       </c>
+      <c r="R36" t="n">
+        <v>8</v>
+      </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
-      </c>
-      <c r="U36" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>55868471</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>-4.456605731606926</v>
+      </c>
       <c r="C37" t="n">
-        <v>-4.456605731606926</v>
+        <v>3.780714308927508</v>
       </c>
       <c r="D37" t="n">
-        <v>3.780714308927508</v>
+        <v>-5.522695190805362</v>
       </c>
       <c r="E37" t="n">
-        <v>-5.522695190805362</v>
+        <v>4.881788659889096</v>
       </c>
       <c r="F37" t="n">
-        <v>4.881788659889096</v>
+        <v>-2.597253576155093</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.597253576155093</v>
+        <v>3.15549551828874</v>
       </c>
       <c r="H37" t="n">
-        <v>3.15549551828874</v>
+        <v>-5.560043367529803</v>
       </c>
       <c r="I37" t="n">
-        <v>-5.560043367529803</v>
+        <v>5.804565264133955</v>
       </c>
       <c r="J37" t="n">
-        <v>5.804565264133955</v>
+        <v>-1.066089459198436</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.40448385069446</v>
+        <v>-1.101074350961588</v>
       </c>
       <c r="L37" t="n">
-        <v>-8.237320040534435</v>
+        <v>-2.962789791374711</v>
       </c>
       <c r="M37" t="n">
-        <v>-11.36460863166376</v>
+        <v>-2.649069745845215</v>
       </c>
       <c r="N37" t="n">
-        <v>-5.752749094443833</v>
+        <v>-0.3137200455294957</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.3137200455294957</v>
+        <v>0.03498489176315189</v>
       </c>
       <c r="P37" t="n">
-        <v>0.03498489176315189</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-7.779023347379948</v>
-      </c>
-      <c r="R37" t="inlineStr">
+        <v>-0.2787351537663438</v>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>瞿蓉蓉</t>
         </is>
       </c>
+      <c r="R37" t="n">
+        <v>9</v>
+      </c>
       <c r="S37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
-      </c>
-      <c r="U37" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>55916641</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>-3.491825251317711</v>
+      </c>
       <c r="C38" t="n">
-        <v>-3.491825251317711</v>
+        <v>7.130163132516472</v>
       </c>
       <c r="D38" t="n">
-        <v>7.130163132516472</v>
+        <v>-7.009457102690992</v>
       </c>
       <c r="E38" t="n">
-        <v>-7.009457102690992</v>
+        <v>1.025791485210006</v>
       </c>
       <c r="F38" t="n">
-        <v>1.025791485210006</v>
+        <v>-4.622382343040899</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.622382343040899</v>
+        <v>7.572775223786318</v>
       </c>
       <c r="H38" t="n">
-        <v>7.572775223786318</v>
+        <v>-4.724321415816897</v>
       </c>
       <c r="I38" t="n">
-        <v>-4.724321415816897</v>
+        <v>3.232151330691393</v>
       </c>
       <c r="J38" t="n">
-        <v>3.232151330691393</v>
+        <v>-3.517631851373281</v>
       </c>
       <c r="K38" t="n">
-        <v>-8.035248587900998</v>
+        <v>6.104371647306467</v>
       </c>
       <c r="L38" t="n">
-        <v>-10.62198838383418</v>
+        <v>-0.1019390727759983</v>
       </c>
       <c r="M38" t="n">
-        <v>-7.956472746508291</v>
+        <v>4.340623893094925</v>
       </c>
       <c r="N38" t="n">
-        <v>-12.19515756682722</v>
+        <v>-4.442562965870923</v>
       </c>
       <c r="O38" t="n">
-        <v>-4.442562965870923</v>
+        <v>-9.622003498679748</v>
       </c>
       <c r="P38" t="n">
-        <v>-9.622003498679748</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>6.82542461625211</v>
-      </c>
-      <c r="R38" t="inlineStr">
+        <v>-14.06456646455067</v>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>伍凯鹏</t>
         </is>
+      </c>
+      <c r="R38" t="n">
+        <v>7</v>
       </c>
       <c r="S38" t="n">
         <v>7</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
-      </c>
-      <c r="U38" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>55918750</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>-7.38592076273798</v>
+      </c>
       <c r="C39" t="n">
-        <v>-7.38592076273798</v>
+        <v>5.189001834600077</v>
       </c>
       <c r="D39" t="n">
-        <v>5.189001834600077</v>
+        <v>-5.978065289314237</v>
       </c>
       <c r="E39" t="n">
-        <v>-5.978065289314237</v>
+        <v>3.491932205722161</v>
       </c>
       <c r="F39" t="n">
-        <v>3.491932205722161</v>
+        <v>-5.415764283430522</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.415764283430522</v>
+        <v>6.194800929923691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.194800929923691</v>
+        <v>-7.708237344651709</v>
       </c>
       <c r="I39" t="n">
-        <v>-7.708237344651709</v>
+        <v>7.444522141935252</v>
       </c>
       <c r="J39" t="n">
-        <v>7.444522141935252</v>
+        <v>1.407855473423743</v>
       </c>
       <c r="K39" t="n">
-        <v>-9.469997495036397</v>
+        <v>1.697069628877916</v>
       </c>
       <c r="L39" t="n">
-        <v>-12.57492259733806</v>
+        <v>-2.292473061221187</v>
       </c>
       <c r="M39" t="n">
-        <v>-15.15275948658696</v>
+        <v>-1.249721212011561</v>
       </c>
       <c r="N39" t="n">
-        <v>-11.61056521335421</v>
+        <v>-1.042751849209626</v>
       </c>
       <c r="O39" t="n">
-        <v>-1.042751849209626</v>
+        <v>-0.2892141554541729</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.2892141554541729</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>-0.4372691709310885</v>
-      </c>
-      <c r="R39" t="inlineStr">
+        <v>-1.331966004663799</v>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>邹阳</t>
         </is>
       </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>55928394</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>-2.763690412859118</v>
+      </c>
       <c r="C40" t="n">
-        <v>-2.763690412859118</v>
+        <v>1.89632115367227</v>
       </c>
       <c r="D40" t="n">
-        <v>1.89632115367227</v>
+        <v>-4.564034537789005</v>
       </c>
       <c r="E40" t="n">
-        <v>-4.564034537789005</v>
+        <v>3.984888738390257</v>
       </c>
       <c r="F40" t="n">
-        <v>3.984888738390257</v>
+        <v>-2.952862576074262</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.952862576074262</v>
+        <v>2.748068045053169</v>
       </c>
       <c r="H40" t="n">
-        <v>2.748068045053169</v>
+        <v>-6.600460508270136</v>
       </c>
       <c r="I40" t="n">
-        <v>-6.600460508270136</v>
+        <v>2.140855810360923</v>
       </c>
       <c r="J40" t="n">
-        <v>2.140855810360923</v>
+        <v>-1.800344124929887</v>
       </c>
       <c r="K40" t="n">
-        <v>-8.548923276179263</v>
+        <v>-2.088567584717987</v>
       </c>
       <c r="L40" t="n">
-        <v>-4.660011566531388</v>
+        <v>-3.647597932195874</v>
       </c>
       <c r="M40" t="n">
-        <v>-8.741316318631059</v>
+        <v>0.6072122346922466</v>
       </c>
       <c r="N40" t="n">
-        <v>-5.700930621127432</v>
+        <v>-4.25481016688812</v>
       </c>
       <c r="O40" t="n">
-        <v>-4.25481016688812</v>
+        <v>0.2882234597880999</v>
       </c>
       <c r="P40" t="n">
-        <v>0.2882234597880999</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-6.929297407151502</v>
-      </c>
-      <c r="R40" t="inlineStr">
+        <v>-3.966586707100021</v>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>郑栋栋</t>
         </is>
       </c>
+      <c r="R40" t="n">
+        <v>8</v>
+      </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>55931580</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>-2.743413457422577</v>
+      </c>
       <c r="C41" t="n">
-        <v>-2.743413457422577</v>
+        <v>2.527003181768889</v>
       </c>
       <c r="D41" t="n">
-        <v>2.527003181768889</v>
+        <v>-1.441246273445092</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.441246273445092</v>
+        <v>3.571897117806223</v>
       </c>
       <c r="F41" t="n">
-        <v>3.571897117806223</v>
+        <v>-2.04540130017955</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.04540130017955</v>
+        <v>4.528254804267384</v>
       </c>
       <c r="H41" t="n">
-        <v>4.528254804267384</v>
+        <v>-1.673057932868969</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.673057932868969</v>
+        <v>3.594397331405909</v>
       </c>
       <c r="J41" t="n">
-        <v>3.594397331405909</v>
+        <v>1.302167183977485</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.013143391251314</v>
+        <v>-1.044893936037333</v>
       </c>
       <c r="L41" t="n">
-        <v>-5.270416639191467</v>
+        <v>0.3723433673105809</v>
       </c>
       <c r="M41" t="n">
-        <v>-5.267455264274878</v>
+        <v>0.933857472861475</v>
       </c>
       <c r="N41" t="n">
-        <v>-6.573656104446934</v>
+        <v>-0.5615141055508941</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.5615141055508941</v>
+        <v>2.347061120014819</v>
       </c>
       <c r="P41" t="n">
-        <v>2.347061120014819</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.563474088112209</v>
-      </c>
-      <c r="R41" t="inlineStr">
+        <v>1.785547014463924</v>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>高越</t>
         </is>
       </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
-      </c>
-      <c r="U41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>55936390</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>-4.599730794776196</v>
+      </c>
       <c r="C42" t="n">
-        <v>-4.599730794776196</v>
+        <v>6.281871018052742</v>
       </c>
       <c r="D42" t="n">
-        <v>6.281871018052742</v>
+        <v>-7.878357976286885</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.878357976286885</v>
+        <v>7.424219508311252</v>
       </c>
       <c r="F42" t="n">
-        <v>7.424219508311252</v>
+        <v>-3.861045371976962</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.861045371976962</v>
+        <v>5.663935454326145</v>
       </c>
       <c r="H42" t="n">
-        <v>5.663935454326145</v>
+        <v>-2.568221857225484</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.568221857225484</v>
+        <v>5.97944733479379</v>
       </c>
       <c r="J42" t="n">
-        <v>5.97944733479379</v>
+        <v>-3.278627181510689</v>
       </c>
       <c r="K42" t="n">
-        <v>-15.30257748459814</v>
+        <v>-1.142348490258509</v>
       </c>
       <c r="L42" t="n">
-        <v>-10.88160181282894</v>
+        <v>1.292823514751478</v>
       </c>
       <c r="M42" t="n">
-        <v>-8.547669192019274</v>
+        <v>-0.3155118804676444</v>
       </c>
       <c r="N42" t="n">
-        <v>-9.524980826303107</v>
+        <v>1.608335395219122</v>
       </c>
       <c r="O42" t="n">
-        <v>1.608335395219122</v>
+        <v>-2.13627869125218</v>
       </c>
       <c r="P42" t="n">
-        <v>-2.13627869125218</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-3.443664037485366</v>
-      </c>
-      <c r="R42" t="inlineStr">
+        <v>-0.5279432960330577</v>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>刘家源</t>
         </is>
       </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
-      </c>
-      <c r="U42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>55938914</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>-2.357921194028963</v>
+      </c>
       <c r="C43" t="n">
-        <v>-2.357921194028963</v>
+        <v>2.790653521904561</v>
       </c>
       <c r="D43" t="n">
-        <v>2.790653521904561</v>
+        <v>-3.40046141558933</v>
       </c>
       <c r="E43" t="n">
-        <v>-3.40046141558933</v>
+        <v>1.401376790202865</v>
       </c>
       <c r="F43" t="n">
-        <v>1.401376790202865</v>
+        <v>-1.883463148768204</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.883463148768204</v>
+        <v>2.131346251706174</v>
       </c>
       <c r="H43" t="n">
-        <v>2.131346251706174</v>
+        <v>-2.995223667410241</v>
       </c>
       <c r="I43" t="n">
-        <v>-2.995223667410241</v>
+        <v>2.122345542879813</v>
       </c>
       <c r="J43" t="n">
-        <v>2.122345542879813</v>
+        <v>-1.042540221560368</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.801838205792196</v>
+        <v>1.389276731701696</v>
       </c>
       <c r="L43" t="n">
-        <v>-5.148574715933524</v>
+        <v>-1.111760518642037</v>
       </c>
       <c r="M43" t="n">
-        <v>-5.117569210290053</v>
+        <v>0.009000708826361059</v>
       </c>
       <c r="N43" t="n">
-        <v>-4.014809400474378</v>
+        <v>-1.120761227468398</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.120761227468398</v>
+        <v>-2.431816953262063</v>
       </c>
       <c r="P43" t="n">
-        <v>-2.431816953262063</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-0.7560232996743474</v>
-      </c>
-      <c r="R43" t="inlineStr">
+        <v>-3.552578180730462</v>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>胡禄美</t>
         </is>
       </c>
+      <c r="R43" t="n">
+        <v>10</v>
+      </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
-      </c>
-      <c r="U43" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>55949248</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>-3.163334353963198</v>
+      </c>
       <c r="C44" t="n">
-        <v>-3.163334353963198</v>
+        <v>5.333156846943053</v>
       </c>
       <c r="D44" t="n">
-        <v>5.333156846943053</v>
+        <v>-4.004338763014568</v>
       </c>
       <c r="E44" t="n">
-        <v>-4.004338763014568</v>
+        <v>2.731979214015574</v>
       </c>
       <c r="F44" t="n">
-        <v>2.731979214015574</v>
+        <v>-2.883978226154579</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.883978226154579</v>
+        <v>1.585508480156212</v>
       </c>
       <c r="H44" t="n">
-        <v>1.585508480156212</v>
+        <v>-2.914288689760512</v>
       </c>
       <c r="I44" t="n">
-        <v>-2.914288689760512</v>
+        <v>4.187636515897972</v>
       </c>
       <c r="J44" t="n">
-        <v>4.187636515897972</v>
+        <v>-0.84100440905137</v>
       </c>
       <c r="K44" t="n">
-        <v>-6.736317977030142</v>
+        <v>2.601177632927479</v>
       </c>
       <c r="L44" t="n">
-        <v>-8.496491200906251</v>
+        <v>-0.03031046360593237</v>
       </c>
       <c r="M44" t="n">
-        <v>-7.101925205658484</v>
+        <v>-2.602128035741759</v>
       </c>
       <c r="N44" t="n">
-        <v>-4.469486706310792</v>
+        <v>2.571817572135827</v>
       </c>
       <c r="O44" t="n">
-        <v>2.571817572135827</v>
+        <v>-3.442182041978849</v>
       </c>
       <c r="P44" t="n">
-        <v>-3.442182041978849</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>-0.8722652754715829</v>
-      </c>
-      <c r="R44" t="inlineStr">
+        <v>-0.8703644698430222</v>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>陈奕诺</t>
         </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
-      </c>
-      <c r="U44" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>55951038</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>-3.86781191033438</v>
+      </c>
       <c r="C45" t="n">
-        <v>-3.86781191033438</v>
+        <v>2.587105321240237</v>
       </c>
       <c r="D45" t="n">
-        <v>2.587105321240237</v>
+        <v>-3.044897935502365</v>
       </c>
       <c r="E45" t="n">
-        <v>-3.044897935502365</v>
+        <v>4.786041590125168</v>
       </c>
       <c r="F45" t="n">
-        <v>4.786041590125168</v>
+        <v>-1.825216024445008</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.825216024445008</v>
+        <v>4.084514046018536</v>
       </c>
       <c r="H45" t="n">
-        <v>4.084514046018536</v>
+        <v>-3.41529653466158</v>
       </c>
       <c r="I45" t="n">
-        <v>-3.41529653466158</v>
+        <v>5.315359086734269</v>
       </c>
       <c r="J45" t="n">
-        <v>5.315359086734269</v>
+        <v>0.8229139748320149</v>
       </c>
       <c r="K45" t="n">
-        <v>-7.830939525627533</v>
+        <v>-2.198936268884931</v>
       </c>
       <c r="L45" t="n">
-        <v>-6.454917231574617</v>
+        <v>-1.590080510216572</v>
       </c>
       <c r="M45" t="n">
-        <v>-8.730655621395849</v>
+        <v>-1.230845040715733</v>
       </c>
       <c r="N45" t="n">
-        <v>-5.909730070463544</v>
+        <v>-0.35923546950084</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.35923546950084</v>
+        <v>3.021850243716946</v>
       </c>
       <c r="P45" t="n">
-        <v>3.021850243716946</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-4.196947844985221</v>
-      </c>
-      <c r="R45" t="inlineStr">
+        <v>2.662614774216106</v>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>凌佩儿</t>
         </is>
       </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
-      </c>
-      <c r="U45" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>56015648</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>-4.607756729048194</v>
+      </c>
       <c r="C46" t="n">
-        <v>-4.607756729048194</v>
+        <v>4.610758755665986</v>
       </c>
       <c r="D46" t="n">
-        <v>4.610758755665986</v>
+        <v>-5.822505711829243</v>
       </c>
       <c r="E46" t="n">
-        <v>-5.822505711829243</v>
+        <v>3.932325976998407</v>
       </c>
       <c r="F46" t="n">
-        <v>3.932325976998407</v>
+        <v>-5.975504604370591</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.975504604370591</v>
+        <v>7.262925397554897</v>
       </c>
       <c r="H46" t="n">
-        <v>7.262925397554897</v>
+        <v>-4.400318895793576</v>
       </c>
       <c r="I46" t="n">
-        <v>-4.400318895793576</v>
+        <v>3.778250946497478</v>
       </c>
       <c r="J46" t="n">
-        <v>3.778250946497478</v>
+        <v>-1.21474898278105</v>
       </c>
       <c r="K46" t="n">
-        <v>-9.75483168882765</v>
+        <v>0.6784327786675792</v>
       </c>
       <c r="L46" t="n">
-        <v>-9.21851548471418</v>
+        <v>1.575185708577015</v>
       </c>
       <c r="M46" t="n">
-        <v>-8.178569842291054</v>
+        <v>3.484674451057419</v>
       </c>
       <c r="N46" t="n">
-        <v>-13.23843000192549</v>
+        <v>-1.909488742480403</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.909488742480403</v>
+        <v>-1.893181761448629</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.893181761448629</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4.523543955520962</v>
-      </c>
-      <c r="R46" t="inlineStr">
+        <v>-3.802670503929032</v>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>陈佳铭</t>
         </is>
       </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
-      </c>
-      <c r="U46" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>56020297</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>-2.07787175818154</v>
+      </c>
       <c r="C47" t="n">
-        <v>-2.07787175818154</v>
+        <v>2.837135982743369</v>
       </c>
       <c r="D47" t="n">
-        <v>2.837135982743369</v>
+        <v>-6.113940028162602</v>
       </c>
       <c r="E47" t="n">
-        <v>-6.113940028162602</v>
+        <v>1.406360608853593</v>
       </c>
       <c r="F47" t="n">
-        <v>1.406360608853593</v>
+        <v>-6.593517023233261</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.593517023233261</v>
+        <v>3.756991177872056</v>
       </c>
       <c r="H47" t="n">
-        <v>3.756991177872056</v>
+        <v>-0.9995371390179786</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.9995371390179786</v>
+        <v>2.001767504128569</v>
       </c>
       <c r="J47" t="n">
-        <v>2.001767504128569</v>
+        <v>-4.036068269981062</v>
       </c>
       <c r="K47" t="n">
-        <v>-7.520300637016195</v>
+        <v>1.430775373889776</v>
       </c>
       <c r="L47" t="n">
-        <v>-4.915007740924909</v>
+        <v>5.593979884215282</v>
       </c>
       <c r="M47" t="n">
-        <v>-3.001304643146547</v>
+        <v>1.755223673743487</v>
       </c>
       <c r="N47" t="n">
-        <v>-10.35050820110532</v>
+        <v>3.838756210471795</v>
       </c>
       <c r="O47" t="n">
-        <v>3.838756210471795</v>
+        <v>-5.466843643870837</v>
       </c>
       <c r="P47" t="n">
-        <v>-5.466843643870837</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4.743910661867483</v>
-      </c>
-      <c r="R47" t="inlineStr">
+        <v>-1.628087433399043</v>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>陈浩然</t>
         </is>
       </c>
+      <c r="R47" t="n">
+        <v>10</v>
+      </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
-      </c>
-      <c r="U47" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>56024896</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>-4.756598378043871</v>
+      </c>
       <c r="C48" t="n">
-        <v>-4.756598378043871</v>
+        <v>7.183154921471166</v>
       </c>
       <c r="D48" t="n">
-        <v>7.183154921471166</v>
+        <v>-7.694866898435561</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.694866898435561</v>
+        <v>6.6008745964073</v>
       </c>
       <c r="F48" t="n">
-        <v>6.6008745964073</v>
+        <v>-7.376695022899899</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.376695022899899</v>
+        <v>2.759998647761187</v>
       </c>
       <c r="H48" t="n">
-        <v>2.759998647761187</v>
+        <v>-4.858195247974536</v>
       </c>
       <c r="I48" t="n">
-        <v>-4.858195247974536</v>
+        <v>5.685992157307563</v>
       </c>
       <c r="J48" t="n">
-        <v>5.685992157307563</v>
+        <v>-2.93826852039169</v>
       </c>
       <c r="K48" t="n">
-        <v>-14.29574149484286</v>
+        <v>0.5822803250638664</v>
       </c>
       <c r="L48" t="n">
-        <v>-11.93975329951504</v>
+        <v>2.518499774925362</v>
       </c>
       <c r="M48" t="n">
-        <v>-10.5441874052821</v>
+        <v>-2.925993509546376</v>
       </c>
       <c r="N48" t="n">
-        <v>-10.13669367066109</v>
+        <v>5.444493284471739</v>
       </c>
       <c r="O48" t="n">
-        <v>5.444493284471739</v>
+        <v>-3.520548845455556</v>
       </c>
       <c r="P48" t="n">
-        <v>-3.520548845455556</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>-2.763481929948838</v>
-      </c>
-      <c r="R48" t="inlineStr">
+        <v>1.923944439016183</v>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>刘李浚</t>
         </is>
       </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
-      </c>
-      <c r="U48" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>56027303</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>-1.334282774971255</v>
+      </c>
       <c r="C49" t="n">
-        <v>-1.334282774971255</v>
+        <v>2.251839628495833</v>
       </c>
       <c r="D49" t="n">
-        <v>2.251839628495833</v>
+        <v>-2.310947132687131</v>
       </c>
       <c r="E49" t="n">
-        <v>-2.310947132687131</v>
+        <v>7.959270961438635</v>
       </c>
       <c r="F49" t="n">
-        <v>7.959270961438635</v>
+        <v>-2.729916661269072</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.729916661269072</v>
+        <v>2.071765334798284</v>
       </c>
       <c r="H49" t="n">
-        <v>2.071765334798284</v>
+        <v>-3.993660874432309</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.993660874432309</v>
+        <v>1.688252979385459</v>
       </c>
       <c r="J49" t="n">
-        <v>1.688252979385459</v>
+        <v>-0.9766643577158765</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.27021809412577</v>
+        <v>-5.707431332942802</v>
       </c>
       <c r="L49" t="n">
-        <v>-3.586122403467088</v>
+        <v>-1.263744213163237</v>
       </c>
       <c r="M49" t="n">
-        <v>-5.681913853817768</v>
+        <v>0.3835123554128252</v>
       </c>
       <c r="N49" t="n">
-        <v>-4.801681996067357</v>
+        <v>-1.647256568576062</v>
       </c>
       <c r="O49" t="n">
-        <v>-1.647256568576062</v>
+        <v>4.730766975226926</v>
       </c>
       <c r="P49" t="n">
-        <v>4.730766975226926</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>-7.564327548409091</v>
-      </c>
-      <c r="R49" t="inlineStr">
+        <v>3.083510406650864</v>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>谭天慧</t>
         </is>
       </c>
+      <c r="R49" t="n">
+        <v>12</v>
+      </c>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
-      </c>
-      <c r="U49" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>56035722</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>-2.709585249620078</v>
+      </c>
       <c r="C50" t="n">
-        <v>-2.709585249620078</v>
+        <v>4.27697846173031</v>
       </c>
       <c r="D50" t="n">
-        <v>4.27697846173031</v>
+        <v>-2.351057343607839</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.351057343607839</v>
+        <v>3.460427399157934</v>
       </c>
       <c r="F50" t="n">
-        <v>3.460427399157934</v>
+        <v>-1.77188389294516</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.77188389294516</v>
+        <v>5.241867958393633</v>
       </c>
       <c r="H50" t="n">
-        <v>5.241867958393633</v>
+        <v>-2.878046740759117</v>
       </c>
       <c r="I50" t="n">
-        <v>-2.878046740759117</v>
+        <v>3.263086632911143</v>
       </c>
       <c r="J50" t="n">
-        <v>3.263086632911143</v>
+        <v>0.3585279060122391</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.811484742765773</v>
+        <v>0.8165510625723758</v>
       </c>
       <c r="L50" t="n">
-        <v>-6.986563711350388</v>
+        <v>-1.106162847813957</v>
       </c>
       <c r="M50" t="n">
-        <v>-6.14113337367026</v>
+        <v>1.97878132548249</v>
       </c>
       <c r="N50" t="n">
-        <v>-7.013751851338792</v>
+        <v>-3.084944173296446</v>
       </c>
       <c r="O50" t="n">
-        <v>-3.084944173296446</v>
+        <v>-0.4580231565601367</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.4580231565601367</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.047697446253148</v>
-      </c>
-      <c r="R50" t="inlineStr">
+        <v>-3.542967329856583</v>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>江凯翔</t>
         </is>
       </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
       <c r="S50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
-      </c>
-      <c r="U50" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>56040135</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>-1.223104452911094</v>
+      </c>
       <c r="C51" t="n">
-        <v>-1.223104452911094</v>
+        <v>2.90541108481732</v>
       </c>
       <c r="D51" t="n">
-        <v>2.90541108481732</v>
+        <v>-2.246279220796571</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.246279220796571</v>
+        <v>6.718505221926803</v>
       </c>
       <c r="F51" t="n">
-        <v>6.718505221926803</v>
+        <v>-2.968399915537992</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.968399915537992</v>
+        <v>1.348889630686099</v>
       </c>
       <c r="H51" t="n">
-        <v>1.348889630686099</v>
+        <v>-1.739689700582706</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.739689700582706</v>
+        <v>1.514118280595252</v>
       </c>
       <c r="J51" t="n">
-        <v>1.514118280595252</v>
+        <v>-1.023174767885477</v>
       </c>
       <c r="K51" t="n">
-        <v>-8.964784442723374</v>
+        <v>-3.813094137109483</v>
       </c>
       <c r="L51" t="n">
-        <v>-4.128515537728414</v>
+        <v>1.228710214955287</v>
       </c>
       <c r="M51" t="n">
-        <v>-3.253807981177958</v>
+        <v>-0.1652286499091533</v>
       </c>
       <c r="N51" t="n">
-        <v>-4.317289546224091</v>
+        <v>1.39393886486444</v>
       </c>
       <c r="O51" t="n">
-        <v>1.39393886486444</v>
+        <v>2.789919369224005</v>
       </c>
       <c r="P51" t="n">
-        <v>2.789919369224005</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>-3.772787339948827</v>
-      </c>
-      <c r="R51" t="inlineStr">
+        <v>4.183858234088445</v>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>刘栩嘉</t>
         </is>
       </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
-      </c>
-      <c r="U51" t="n">
         <v>6</v>
       </c>
     </row>
